--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>Expiration Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
   </si>
   <si>
     <t>publicCertificate</t>
@@ -2607,7 +2611,7 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>108</v>
@@ -2687,7 +2691,7 @@
         <v>86</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -2712,7 +2716,7 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>89</v>
@@ -3026,7 +3030,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
@@ -3111,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>108</v>
@@ -3313,7 +3317,7 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>108</v>

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,7 +377,7 @@
     <t>signedArtifact</t>
   </si>
   <si>
-    <t>Expiration Date</t>
+    <t>Signed Artifact</t>
   </si>
   <si>
     <t xml:space="preserve">base64Binary
@@ -387,7 +387,7 @@
     <t>publicCertificate</t>
   </si>
   <si>
-    <t>PublicCertificate</t>
+    <t>Public Certificate</t>
   </si>
   <si>
     <t>base64Binary

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/trustFramework</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/trustFramework</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/TrustFrameworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/TrustFrameworkTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -752,7 +752,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.35546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/trustFramework</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/trustFramework</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/TrustFrameworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/TrustFrameworkTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -752,7 +752,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-trustFramework.xlsx
+++ b/output/StructureDefinition-trustFramework.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/trustFramework</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/trustFramework</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/TrustFrameworkTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/TrustFrameworkTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
